--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_3_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_3_bus_resonant.xlsx
@@ -755,16 +755,16 @@
         <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>0.9618627255197193</v>
+        <v>0.9618627255197185</v>
       </c>
       <c r="P2">
         <v>1.05530912685228</v>
       </c>
       <c r="Q2">
-        <v>26.46268431694228</v>
+        <v>26.46268431694226</v>
       </c>
       <c r="R2">
-        <v>-91.57079613676153</v>
+        <v>-91.57079613676156</v>
       </c>
       <c r="S2">
         <v>152.8993938557652</v>
@@ -814,19 +814,19 @@
         <v>1.05833274212321</v>
       </c>
       <c r="O3">
-        <v>0.4199934651621025</v>
+        <v>0.4199934651621006</v>
       </c>
       <c r="P3">
-        <v>0.8849458407134011</v>
+        <v>0.884945840713399</v>
       </c>
       <c r="Q3">
-        <v>10.36827052971088</v>
+        <v>10.36827052971081</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535644</v>
+        <v>-114.9022326535649</v>
       </c>
       <c r="S3">
-        <v>167.570584904511</v>
+        <v>167.5705849045111</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9909306888778331</v>
+        <v>0.9909306888778336</v>
       </c>
       <c r="O4">
-        <v>0.1679973860669874</v>
+        <v>0.1679973860669844</v>
       </c>
       <c r="P4">
-        <v>0.9204173017492238</v>
+        <v>0.9204173017492218</v>
       </c>
       <c r="Q4">
-        <v>4.409620443404006</v>
+        <v>4.409620443403907</v>
       </c>
       <c r="R4">
-        <v>-114.9022326490687</v>
+        <v>-114.90223264907</v>
       </c>
       <c r="S4">
-        <v>175.2518098001974</v>
+        <v>175.2518098001976</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -896,55 +896,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.20423179939041</v>
+        <v>3.204231799390427</v>
       </c>
       <c r="D5">
-        <v>3.20423179939041</v>
+        <v>3.204231799390427</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.99928183848024</v>
+        <v>36.99928183848044</v>
       </c>
       <c r="G5">
-        <v>36.99928183848024</v>
+        <v>36.99928183848044</v>
       </c>
       <c r="H5">
-        <v>6.193141972850111</v>
+        <v>0.924288997373898</v>
       </c>
       <c r="I5">
-        <v>2.890812310053084</v>
+        <v>-777.3787709404544</v>
       </c>
       <c r="J5">
-        <v>0.974398590253577</v>
+        <v>0.9743985902939444</v>
       </c>
       <c r="K5">
-        <v>3.291772033553182</v>
+        <v>3.291772033630032</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603586</v>
+        <v>0.974398590255609</v>
       </c>
       <c r="M5">
-        <v>3.291772033564914</v>
+        <v>3.291772033574271</v>
       </c>
       <c r="N5">
-        <v>0.9526279648039778</v>
+        <v>0.9526279648039786</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648057687</v>
+        <v>0.9526279648057672</v>
       </c>
       <c r="Q5">
-        <v>-1.434352929403458E-11</v>
+        <v>-1.447069558077393E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999999793</v>
+        <v>-179.9999999999791</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9710601884679125</v>
+        <v>0.9710601884679132</v>
       </c>
       <c r="O6">
-        <v>0.08399869303568283</v>
+        <v>0.08399869303567935</v>
       </c>
       <c r="P6">
-        <v>0.9357190172509386</v>
+        <v>0.935719017250937</v>
       </c>
       <c r="Q6">
-        <v>2.248283018886296</v>
+        <v>2.248283018886182</v>
       </c>
       <c r="R6">
-        <v>-114.9022326412659</v>
+        <v>-114.9022326412686</v>
       </c>
       <c r="S6">
-        <v>177.6667554660106</v>
+        <v>177.6667554660108</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1125,7 @@
         <v>1.035635625232691</v>
       </c>
       <c r="P2">
-        <v>1.07075516847179</v>
+        <v>1.070755168471789</v>
       </c>
       <c r="Q2">
         <v>28.13571929983946</v>
@@ -1184,13 +1184,13 @@
         <v>0.7889914957619025</v>
       </c>
       <c r="P3">
-        <v>0.9451006847892726</v>
+        <v>0.9451006847892717</v>
       </c>
       <c r="Q3">
         <v>20.24709464694267</v>
       </c>
       <c r="R3">
-        <v>-103.0653321379199</v>
+        <v>-103.06533213792</v>
       </c>
       <c r="S3">
         <v>156.0082067402618</v>
@@ -1243,13 +1243,13 @@
         <v>0.6610662947114375</v>
       </c>
       <c r="P4">
-        <v>0.932167159261258</v>
+        <v>0.9321671592612571</v>
       </c>
       <c r="Q4">
         <v>17.32147694956702</v>
       </c>
       <c r="R4">
-        <v>-103.5752691854824</v>
+        <v>-103.5752691854825</v>
       </c>
       <c r="S4">
         <v>159.8377717076658</v>
@@ -1263,52 +1263,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.628672512805916</v>
+        <v>1.62867251280592</v>
       </c>
       <c r="D5">
-        <v>1.628672512805916</v>
+        <v>1.62867251280592</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.8062902738048</v>
+        <v>18.80629027380485</v>
       </c>
       <c r="G5">
-        <v>18.8062902738048</v>
+        <v>18.80629027380485</v>
       </c>
       <c r="H5">
-        <v>6.193141972850111</v>
+        <v>0.924288997373898</v>
       </c>
       <c r="I5">
-        <v>2.890812310053084</v>
+        <v>-777.3787709404544</v>
       </c>
       <c r="J5">
-        <v>0.974398590253577</v>
+        <v>0.9743985902939444</v>
       </c>
       <c r="K5">
-        <v>3.291772033553182</v>
+        <v>3.291772033630032</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603586</v>
+        <v>0.974398590255609</v>
       </c>
       <c r="M5">
-        <v>3.291772033564914</v>
+        <v>3.291772033574271</v>
       </c>
       <c r="N5">
         <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>0.5758226890677859</v>
+        <v>0.5758226890677856</v>
       </c>
       <c r="P5">
-        <v>0.9259084304691398</v>
+        <v>0.925908430469139</v>
       </c>
       <c r="Q5">
         <v>15.27863230041744</v>
       </c>
       <c r="R5">
-        <v>-104.0410782188621</v>
+        <v>-104.0410782188622</v>
       </c>
       <c r="S5">
         <v>162.4426920027739</v>
@@ -1358,16 +1358,16 @@
         <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>0.6184394066324069</v>
+        <v>0.6184394066324066</v>
       </c>
       <c r="P6">
-        <v>0.9287977660541846</v>
+        <v>0.9287977660541838</v>
       </c>
       <c r="Q6">
-        <v>16.30922779350171</v>
+        <v>16.3092277935017</v>
       </c>
       <c r="R6">
-        <v>-103.7921223584376</v>
+        <v>-103.7921223584377</v>
       </c>
       <c r="S6">
         <v>161.1358439017222</v>
@@ -1492,7 +1492,7 @@
         <v>1.035635625232691</v>
       </c>
       <c r="P2">
-        <v>1.07075516847179</v>
+        <v>1.070755168471789</v>
       </c>
       <c r="Q2">
         <v>28.13571929983946</v>
@@ -1551,13 +1551,13 @@
         <v>0.7889914957619025</v>
       </c>
       <c r="P3">
-        <v>0.9451006847892726</v>
+        <v>0.9451006847892717</v>
       </c>
       <c r="Q3">
         <v>20.24709464694267</v>
       </c>
       <c r="R3">
-        <v>-103.0653321379199</v>
+        <v>-103.06533213792</v>
       </c>
       <c r="S3">
         <v>156.0082067402618</v>
@@ -1610,13 +1610,13 @@
         <v>0.6610662947114375</v>
       </c>
       <c r="P4">
-        <v>0.932167159261258</v>
+        <v>0.9321671592612571</v>
       </c>
       <c r="Q4">
         <v>17.32147694956702</v>
       </c>
       <c r="R4">
-        <v>-103.5752691854824</v>
+        <v>-103.5752691854825</v>
       </c>
       <c r="S4">
         <v>159.8377717076658</v>
@@ -1630,52 +1630,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.628672512805916</v>
+        <v>1.62867251280592</v>
       </c>
       <c r="D5">
-        <v>1.628672512805916</v>
+        <v>1.62867251280592</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.8062902738048</v>
+        <v>18.80629027380485</v>
       </c>
       <c r="G5">
-        <v>18.8062902738048</v>
+        <v>18.80629027380485</v>
       </c>
       <c r="H5">
-        <v>6.193141972850111</v>
+        <v>0.924288997373898</v>
       </c>
       <c r="I5">
-        <v>2.890812310053084</v>
+        <v>-777.3787709404544</v>
       </c>
       <c r="J5">
-        <v>0.974398590253577</v>
+        <v>0.9743985902939444</v>
       </c>
       <c r="K5">
-        <v>3.291772033553182</v>
+        <v>3.291772033630032</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603586</v>
+        <v>0.974398590255609</v>
       </c>
       <c r="M5">
-        <v>3.291772033564914</v>
+        <v>3.291772033574271</v>
       </c>
       <c r="N5">
         <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>0.5758226890677859</v>
+        <v>0.5758226890677856</v>
       </c>
       <c r="P5">
-        <v>0.9259084304691398</v>
+        <v>0.925908430469139</v>
       </c>
       <c r="Q5">
         <v>15.27863230041744</v>
       </c>
       <c r="R5">
-        <v>-104.0410782188621</v>
+        <v>-104.0410782188622</v>
       </c>
       <c r="S5">
         <v>162.4426920027739</v>
@@ -1725,16 +1725,16 @@
         <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>0.6184394066324069</v>
+        <v>0.6184394066324066</v>
       </c>
       <c r="P6">
-        <v>0.9287977660541846</v>
+        <v>0.9287977660541838</v>
       </c>
       <c r="Q6">
-        <v>16.30922779350171</v>
+        <v>16.3092277935017</v>
       </c>
       <c r="R6">
-        <v>-103.7921223584376</v>
+        <v>-103.7921223584377</v>
       </c>
       <c r="S6">
         <v>161.1358439017222</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.992935592721811</v>
+        <v>0.9929355927218112</v>
       </c>
       <c r="O2">
-        <v>0.8804584269842806</v>
+        <v>0.8804584269842799</v>
       </c>
       <c r="P2">
-        <v>0.949569602260843</v>
+        <v>0.9495696022608423</v>
       </c>
       <c r="Q2">
-        <v>26.27528026615309</v>
+        <v>26.27528026615306</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439107</v>
+        <v>-93.16654538439114</v>
       </c>
       <c r="S2">
         <v>152.425513590047</v>
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.02139697912874</v>
+        <v>1.021396979128742</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969642</v>
+        <v>0.5037062977969645</v>
       </c>
       <c r="P3">
-        <v>0.7639425556035891</v>
+        <v>0.7639425556035859</v>
       </c>
       <c r="Q3">
-        <v>12.0977983898126</v>
+        <v>12.09779838981251</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883314</v>
+        <v>-121.7925562883321</v>
       </c>
       <c r="S3">
-        <v>163.7271795849222</v>
+        <v>163.7271795849223</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9230804480215801</v>
+        <v>0.9230804480215825</v>
       </c>
       <c r="O4">
-        <v>0.2014825191277485</v>
+        <v>0.2014825191277468</v>
       </c>
       <c r="P4">
-        <v>0.8174473005965652</v>
+        <v>0.8174473005965621</v>
       </c>
       <c r="Q4">
-        <v>5.322483588802258</v>
+        <v>5.322483588802081</v>
       </c>
       <c r="R4">
-        <v>-121.7925562833983</v>
+        <v>-121.7925562834005</v>
       </c>
       <c r="S4">
-        <v>173.987338884872</v>
+        <v>173.9873388848722</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1997,55 +1997,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.606052819855855</v>
+        <v>2.606052819855877</v>
       </c>
       <c r="D5">
-        <v>2.606052819855855</v>
+        <v>2.606052819855877</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.09210594132322</v>
+        <v>30.09210594132347</v>
       </c>
       <c r="G5">
-        <v>30.09210594132322</v>
+        <v>30.09210594132347</v>
       </c>
       <c r="H5">
-        <v>11.88996667800025</v>
+        <v>1.774569988253861</v>
       </c>
       <c r="I5">
-        <v>2.806851597694823</v>
+        <v>-777.3786294345613</v>
       </c>
       <c r="J5">
-        <v>1.779351894005447</v>
+        <v>1.779351894045357</v>
       </c>
       <c r="K5">
-        <v>3.399730879266431</v>
+        <v>3.399730879342927</v>
       </c>
       <c r="L5">
-        <v>1.779351893992418</v>
+        <v>1.779351893987454</v>
       </c>
       <c r="M5">
-        <v>3.399730879243924</v>
+        <v>3.399730879253181</v>
       </c>
       <c r="N5">
-        <v>0.8660254037886731</v>
+        <v>0.8660254037886757</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037890395</v>
+        <v>0.8660254037890364</v>
       </c>
       <c r="Q5">
-        <v>1.923580274900536E-10</v>
+        <v>1.921268350876488E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997996</v>
+        <v>179.9999999997998</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8935891429579178</v>
+        <v>0.8935891429579202</v>
       </c>
       <c r="O6">
-        <v>0.1007412595722652</v>
+        <v>0.1007412595722626</v>
       </c>
       <c r="P6">
-        <v>0.8405788745222774</v>
+        <v>0.8405788745222743</v>
       </c>
       <c r="Q6">
-        <v>2.746170498569104</v>
+        <v>2.746170498568913</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748666</v>
+        <v>-121.7925562748711</v>
       </c>
       <c r="S6">
-        <v>177.0804994190645</v>
+        <v>177.0804994190647</v>
       </c>
     </row>
   </sheetData>
@@ -2220,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.992935592721811</v>
+        <v>0.9929355927218112</v>
       </c>
       <c r="O2">
-        <v>0.8804584269842806</v>
+        <v>0.8804584269842799</v>
       </c>
       <c r="P2">
-        <v>0.949569602260843</v>
+        <v>0.9495696022608423</v>
       </c>
       <c r="Q2">
-        <v>26.27528026615309</v>
+        <v>26.27528026615306</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439107</v>
+        <v>-93.16654538439114</v>
       </c>
       <c r="S2">
         <v>152.425513590047</v>
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.02139697912874</v>
+        <v>1.021396979128742</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969642</v>
+        <v>0.5037062977969645</v>
       </c>
       <c r="P3">
-        <v>0.7639425556035891</v>
+        <v>0.7639425556035859</v>
       </c>
       <c r="Q3">
-        <v>12.0977983898126</v>
+        <v>12.09779838981251</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883314</v>
+        <v>-121.7925562883321</v>
       </c>
       <c r="S3">
-        <v>163.7271795849222</v>
+        <v>163.7271795849223</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9230804480215801</v>
+        <v>0.9230804480215825</v>
       </c>
       <c r="O4">
-        <v>0.2014825191277485</v>
+        <v>0.2014825191277468</v>
       </c>
       <c r="P4">
-        <v>0.8174473005965652</v>
+        <v>0.8174473005965621</v>
       </c>
       <c r="Q4">
-        <v>5.322483588802258</v>
+        <v>5.322483588802081</v>
       </c>
       <c r="R4">
-        <v>-121.7925562833983</v>
+        <v>-121.7925562834005</v>
       </c>
       <c r="S4">
-        <v>173.987338884872</v>
+        <v>173.9873388848722</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2364,55 +2364,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.606052819855855</v>
+        <v>2.606052819855877</v>
       </c>
       <c r="D5">
-        <v>2.606052819855855</v>
+        <v>2.606052819855877</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.09210594132322</v>
+        <v>30.09210594132347</v>
       </c>
       <c r="G5">
-        <v>30.09210594132322</v>
+        <v>30.09210594132347</v>
       </c>
       <c r="H5">
-        <v>11.88996667800025</v>
+        <v>1.774569988253861</v>
       </c>
       <c r="I5">
-        <v>2.806851597694823</v>
+        <v>-777.3786294345613</v>
       </c>
       <c r="J5">
-        <v>1.779351894005447</v>
+        <v>1.779351894045357</v>
       </c>
       <c r="K5">
-        <v>3.399730879266431</v>
+        <v>3.399730879342927</v>
       </c>
       <c r="L5">
-        <v>1.779351893992418</v>
+        <v>1.779351893987454</v>
       </c>
       <c r="M5">
-        <v>3.399730879243924</v>
+        <v>3.399730879253181</v>
       </c>
       <c r="N5">
-        <v>0.8660254037886731</v>
+        <v>0.8660254037886757</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037890395</v>
+        <v>0.8660254037890364</v>
       </c>
       <c r="Q5">
-        <v>1.923580274900536E-10</v>
+        <v>1.921268350876488E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997996</v>
+        <v>179.9999999997998</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8935891429579178</v>
+        <v>0.8935891429579202</v>
       </c>
       <c r="O6">
-        <v>0.1007412595722652</v>
+        <v>0.1007412595722626</v>
       </c>
       <c r="P6">
-        <v>0.8405788745222774</v>
+        <v>0.8405788745222743</v>
       </c>
       <c r="Q6">
-        <v>2.746170498569104</v>
+        <v>2.746170498568913</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748666</v>
+        <v>-121.7925562748711</v>
       </c>
       <c r="S6">
-        <v>177.0804994190645</v>
+        <v>177.0804994190647</v>
       </c>
     </row>
   </sheetData>
@@ -2590,16 +2590,16 @@
         <v>1.000734427743673</v>
       </c>
       <c r="O2">
-        <v>0.9413695280821804</v>
+        <v>0.9413695280821802</v>
       </c>
       <c r="P2">
-        <v>0.9703704959111742</v>
+        <v>0.9703704959111741</v>
       </c>
       <c r="Q2">
-        <v>28.0357480611579</v>
+        <v>28.03574806115789</v>
       </c>
       <c r="R2">
-        <v>-92.10361953460276</v>
+        <v>-92.10361953460279</v>
       </c>
       <c r="S2">
         <v>151.0052246358092</v>
@@ -2646,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.022838679026473</v>
+        <v>1.022838679026474</v>
       </c>
       <c r="O3">
-        <v>0.7448705945366206</v>
+        <v>0.7448705945366207</v>
       </c>
       <c r="P3">
-        <v>0.855112354021765</v>
+        <v>0.8551123540217641</v>
       </c>
       <c r="Q3">
-        <v>20.67709037248194</v>
+        <v>20.67709037248192</v>
       </c>
       <c r="R3">
-        <v>-104.1311854330021</v>
+        <v>-104.1311854330022</v>
       </c>
       <c r="S3">
         <v>155.0163347176377</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9691149430901757</v>
+        <v>0.9691149430901764</v>
       </c>
       <c r="O4">
-        <v>0.5884255246251147</v>
+        <v>0.5884255246251144</v>
       </c>
       <c r="P4">
-        <v>0.856702122155124</v>
+        <v>0.856702122155123</v>
       </c>
       <c r="Q4">
-        <v>17.29967291872723</v>
+        <v>17.2996729187272</v>
       </c>
       <c r="R4">
-        <v>-101.6177951673501</v>
+        <v>-101.6177951673503</v>
       </c>
       <c r="S4">
         <v>160.3429768147775</v>
@@ -2731,52 +2731,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.372057420289412</v>
+        <v>1.372057420289417</v>
       </c>
       <c r="D5">
-        <v>1.372057420289412</v>
+        <v>1.372057420289417</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.84315441895431</v>
+        <v>15.84315441895437</v>
       </c>
       <c r="G5">
-        <v>15.84315441895431</v>
+        <v>15.84315441895437</v>
       </c>
       <c r="H5">
-        <v>11.88996667800025</v>
+        <v>1.774569988253861</v>
       </c>
       <c r="I5">
-        <v>2.806851597694823</v>
+        <v>-777.3786294345613</v>
       </c>
       <c r="J5">
-        <v>1.779351894005447</v>
+        <v>1.779351894045357</v>
       </c>
       <c r="K5">
-        <v>3.399730879266431</v>
+        <v>3.399730879342927</v>
       </c>
       <c r="L5">
-        <v>1.779351893992418</v>
+        <v>1.779351893987454</v>
       </c>
       <c r="M5">
-        <v>3.399730879243924</v>
+        <v>3.399730879253181</v>
       </c>
       <c r="N5">
-        <v>0.9353465602742624</v>
+        <v>0.9353465602742632</v>
       </c>
       <c r="O5">
-        <v>0.4850955530357797</v>
+        <v>0.4850955530357788</v>
       </c>
       <c r="P5">
-        <v>0.8618501377741076</v>
+        <v>0.8618501377741062</v>
       </c>
       <c r="Q5">
-        <v>14.83811452875883</v>
+        <v>14.83811452875879</v>
       </c>
       <c r="R5">
-        <v>-99.04485975339253</v>
+        <v>-99.0448597533928</v>
       </c>
       <c r="S5">
         <v>163.863451365583</v>
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9520111306336771</v>
+        <v>0.9520111306336779</v>
       </c>
       <c r="O6">
-        <v>0.5366264965011798</v>
+        <v>0.5366264965011791</v>
       </c>
       <c r="P6">
-        <v>0.8588706570454891</v>
+        <v>0.8588706570454877</v>
       </c>
       <c r="Q6">
-        <v>16.09072026904602</v>
+        <v>16.09072026904599</v>
       </c>
       <c r="R6">
-        <v>-100.4551748721693</v>
+        <v>-100.4551748721696</v>
       </c>
       <c r="S6">
-        <v>162.1084886349017</v>
+        <v>162.1084886349018</v>
       </c>
     </row>
   </sheetData>
@@ -2957,16 +2957,16 @@
         <v>1.000734427743673</v>
       </c>
       <c r="O2">
-        <v>0.9413695280821804</v>
+        <v>0.9413695280821802</v>
       </c>
       <c r="P2">
-        <v>0.9703704959111742</v>
+        <v>0.9703704959111741</v>
       </c>
       <c r="Q2">
-        <v>28.0357480611579</v>
+        <v>28.03574806115789</v>
       </c>
       <c r="R2">
-        <v>-92.10361953460276</v>
+        <v>-92.10361953460279</v>
       </c>
       <c r="S2">
         <v>151.0052246358092</v>
@@ -3013,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.022838679026473</v>
+        <v>1.022838679026474</v>
       </c>
       <c r="O3">
-        <v>0.7448705945366206</v>
+        <v>0.7448705945366207</v>
       </c>
       <c r="P3">
-        <v>0.855112354021765</v>
+        <v>0.8551123540217641</v>
       </c>
       <c r="Q3">
-        <v>20.67709037248194</v>
+        <v>20.67709037248192</v>
       </c>
       <c r="R3">
-        <v>-104.1311854330021</v>
+        <v>-104.1311854330022</v>
       </c>
       <c r="S3">
         <v>155.0163347176377</v>
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9691149430901757</v>
+        <v>0.9691149430901764</v>
       </c>
       <c r="O4">
-        <v>0.5884255246251147</v>
+        <v>0.5884255246251144</v>
       </c>
       <c r="P4">
-        <v>0.856702122155124</v>
+        <v>0.856702122155123</v>
       </c>
       <c r="Q4">
-        <v>17.29967291872723</v>
+        <v>17.2996729187272</v>
       </c>
       <c r="R4">
-        <v>-101.6177951673501</v>
+        <v>-101.6177951673503</v>
       </c>
       <c r="S4">
         <v>160.3429768147775</v>
@@ -3098,52 +3098,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.372057420289412</v>
+        <v>1.372057420289417</v>
       </c>
       <c r="D5">
-        <v>1.372057420289412</v>
+        <v>1.372057420289417</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.84315441895431</v>
+        <v>15.84315441895437</v>
       </c>
       <c r="G5">
-        <v>15.84315441895431</v>
+        <v>15.84315441895437</v>
       </c>
       <c r="H5">
-        <v>11.88996667800025</v>
+        <v>1.774569988253861</v>
       </c>
       <c r="I5">
-        <v>2.806851597694823</v>
+        <v>-777.3786294345613</v>
       </c>
       <c r="J5">
-        <v>1.779351894005447</v>
+        <v>1.779351894045357</v>
       </c>
       <c r="K5">
-        <v>3.399730879266431</v>
+        <v>3.399730879342927</v>
       </c>
       <c r="L5">
-        <v>1.779351893992418</v>
+        <v>1.779351893987454</v>
       </c>
       <c r="M5">
-        <v>3.399730879243924</v>
+        <v>3.399730879253181</v>
       </c>
       <c r="N5">
-        <v>0.9353465602742624</v>
+        <v>0.9353465602742632</v>
       </c>
       <c r="O5">
-        <v>0.4850955530357797</v>
+        <v>0.4850955530357788</v>
       </c>
       <c r="P5">
-        <v>0.8618501377741076</v>
+        <v>0.8618501377741062</v>
       </c>
       <c r="Q5">
-        <v>14.83811452875883</v>
+        <v>14.83811452875879</v>
       </c>
       <c r="R5">
-        <v>-99.04485975339253</v>
+        <v>-99.0448597533928</v>
       </c>
       <c r="S5">
         <v>163.863451365583</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9520111306336771</v>
+        <v>0.9520111306336779</v>
       </c>
       <c r="O6">
-        <v>0.5366264965011798</v>
+        <v>0.5366264965011791</v>
       </c>
       <c r="P6">
-        <v>0.8588706570454891</v>
+        <v>0.8588706570454877</v>
       </c>
       <c r="Q6">
-        <v>16.09072026904602</v>
+        <v>16.09072026904599</v>
       </c>
       <c r="R6">
-        <v>-100.4551748721693</v>
+        <v>-100.4551748721696</v>
       </c>
       <c r="S6">
-        <v>162.1084886349017</v>
+        <v>162.1084886349018</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.033161068084959</v>
+        <v>1.100880930439895</v>
       </c>
       <c r="O2">
-        <v>1.100000023845417</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.073324765954123</v>
+        <v>1.100993086849897</v>
       </c>
       <c r="Q2">
-        <v>29.67797141113628</v>
+        <v>29.96678971523134</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>146.7525665763684</v>
+        <v>150.0230889501021</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7525770229495092</v>
+        <v>1.104801221473542</v>
       </c>
       <c r="O3">
-        <v>1.100000023849339</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P3">
-        <v>1.02165913896379</v>
+        <v>1.105087491825696</v>
       </c>
       <c r="Q3">
-        <v>26.26161246242287</v>
+        <v>29.83915370173495</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>131.3449247770469</v>
+        <v>150.1349813079683</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6479729288965724</v>
+        <v>1.10542136984949</v>
       </c>
       <c r="O4">
-        <v>1.100000023849339</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P4">
-        <v>0.9455064893833879</v>
+        <v>1.106990829173754</v>
       </c>
       <c r="Q4">
-        <v>31.0787521929652</v>
+        <v>29.74363441148149</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>125.9406393272468</v>
+        <v>150.1145090919579</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3.050317367585603</v>
+        <v>0.04943576783470766</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>35.22203106578677</v>
+        <v>0.5708350773392862</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3492,43 +3492,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.193141972850158</v>
+        <v>0.9242889973714739</v>
       </c>
       <c r="I5">
-        <v>2.890812310052897</v>
+        <v>-777.3787709404553</v>
       </c>
       <c r="J5">
-        <v>0.9743985901652035</v>
+        <v>0.9743985900784291</v>
       </c>
       <c r="K5">
-        <v>3.291772033564905</v>
+        <v>3.291772033561374</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606004</v>
+        <v>0.974398590271075</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033564206</v>
       </c>
       <c r="N5">
-        <v>0.5815372866335901</v>
+        <v>1.105836507341089</v>
       </c>
       <c r="O5">
-        <v>1.100000023849339</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P5">
-        <v>0.9000545224601514</v>
+        <v>1.108259799030053</v>
       </c>
       <c r="Q5">
-        <v>35.23345800438613</v>
+        <v>29.68001451791596</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>121.8536036145802</v>
+        <v>150.1009000148675</v>
       </c>
       <c r="T5">
-        <v>3.050317367585602</v>
+        <v>0.04943576783470764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6143522705465432</v>
+        <v>1.105628768198969</v>
       </c>
       <c r="O6">
-        <v>1.100000023849339</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P6">
-        <v>0.9221940026827624</v>
+        <v>1.107625306290719</v>
       </c>
       <c r="Q6">
-        <v>33.04380785956382</v>
+        <v>29.71181849275681</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999628</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>123.9474700024203</v>
+        <v>150.1077006555408</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.033161068084959</v>
+        <v>1.100880930439895</v>
       </c>
       <c r="O2">
-        <v>1.100000023845417</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.073324765954123</v>
+        <v>1.100993086849897</v>
       </c>
       <c r="Q2">
-        <v>29.67797141113628</v>
+        <v>29.96678971523134</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>146.7525665763684</v>
+        <v>150.0230889501021</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7525770229495092</v>
+        <v>1.104801221473542</v>
       </c>
       <c r="O3">
-        <v>1.100000023849339</v>
+        <v>1.100000023841817</v>
       </c>
       <c r="P3">
-        <v>1.02165913896379</v>
+        <v>1.105087491825696</v>
       </c>
       <c r="Q3">
-        <v>26.26161246242287</v>
+        <v>29.83915370173495</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>131.3449247770469</v>
+        <v>150.1349813079683</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6479729288965724</v>
+        <v>1.10542136984949</v>
       </c>
       <c r="O4">
-        <v>1.100000023849339</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P4">
-        <v>0.9455064893833879</v>
+        <v>1.106990829173754</v>
       </c>
       <c r="Q4">
-        <v>31.0787521929652</v>
+        <v>29.74363441148149</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>125.9406393272468</v>
+        <v>150.1145090919579</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3.050317367585603</v>
+        <v>0.04943576783470766</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>35.22203106578677</v>
+        <v>0.5708350773392862</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.193141972850158</v>
+        <v>0.9242889973714739</v>
       </c>
       <c r="I5">
-        <v>2.890812310052897</v>
+        <v>-777.3787709404553</v>
       </c>
       <c r="J5">
-        <v>0.9743985901652035</v>
+        <v>0.9743985900784291</v>
       </c>
       <c r="K5">
-        <v>3.291772033564905</v>
+        <v>3.291772033561374</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606004</v>
+        <v>0.974398590271075</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033564206</v>
       </c>
       <c r="N5">
-        <v>0.5815372866335901</v>
+        <v>1.105836507341089</v>
       </c>
       <c r="O5">
-        <v>1.100000023849339</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P5">
-        <v>0.9000545224601514</v>
+        <v>1.108259799030053</v>
       </c>
       <c r="Q5">
-        <v>35.23345800438613</v>
+        <v>29.68001451791596</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>121.8536036145802</v>
+        <v>150.1009000148675</v>
       </c>
       <c r="T5">
-        <v>3.050317367585602</v>
+        <v>0.04943576783470764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6143522705465432</v>
+        <v>1.105628768198969</v>
       </c>
       <c r="O6">
-        <v>1.100000023849339</v>
+        <v>1.100000023841818</v>
       </c>
       <c r="P6">
-        <v>0.9221940026827624</v>
+        <v>1.107625306290719</v>
       </c>
       <c r="Q6">
-        <v>33.04380785956382</v>
+        <v>29.71181849275681</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999628</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>123.9474700024203</v>
+        <v>150.1077006555408</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.075340497076117</v>
+        <v>1.100885048434465</v>
       </c>
       <c r="O2">
-        <v>1.100000023843186</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.090793629028436</v>
+        <v>1.101021321329504</v>
       </c>
       <c r="Q2">
-        <v>29.82263079535391</v>
+        <v>29.96521596542121</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.7904994309988</v>
+        <v>150.0224862950387</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9718705643998585</v>
+        <v>1.104831597773249</v>
       </c>
       <c r="O3">
-        <v>1.100000023844711</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P3">
-        <v>1.064028910546295</v>
+        <v>1.105238697049233</v>
       </c>
       <c r="Q3">
-        <v>28.56571607035634</v>
+        <v>29.83099215593</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>143.3407071603335</v>
+        <v>150.1322247687002</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9322925558244001</v>
+        <v>1.105426658302853</v>
       </c>
       <c r="O4">
-        <v>1.100000023844711</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P4">
-        <v>1.029669667300757</v>
+        <v>1.107170901477865</v>
       </c>
       <c r="Q4">
-        <v>29.78823596287033</v>
+        <v>29.73297679904558</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>141.7940058885785</v>
+        <v>150.1093644084624</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.131286872924681</v>
+        <v>0.05040316071526205</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.06297561227509</v>
+        <v>0.5820055681392904</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4262,43 +4262,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.193141972850158</v>
+        <v>0.9242889973714739</v>
       </c>
       <c r="I5">
-        <v>2.890812310052897</v>
+        <v>-777.3787709404553</v>
       </c>
       <c r="J5">
-        <v>0.9743985901652035</v>
+        <v>0.9743985900784291</v>
       </c>
       <c r="K5">
-        <v>3.291772033564905</v>
+        <v>3.291772033561374</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606004</v>
+        <v>0.974398590271075</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033564206</v>
       </c>
       <c r="N5">
-        <v>0.906160143033605</v>
+        <v>1.105825160925582</v>
       </c>
       <c r="O5">
-        <v>1.100000023844711</v>
+        <v>1.100000023841823</v>
       </c>
       <c r="P5">
-        <v>1.007203956173986</v>
+        <v>1.108459135397323</v>
       </c>
       <c r="Q5">
-        <v>30.6623176874836</v>
+        <v>29.66769195547793</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S5">
-        <v>140.7047633326422</v>
+        <v>150.0941684464466</v>
       </c>
       <c r="T5">
-        <v>1.131286872924681</v>
+        <v>0.05040316071526206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9191996131227352</v>
+        <v>1.105625730183053</v>
       </c>
       <c r="O6">
-        <v>1.100000023844711</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P6">
-        <v>1.018390808124532</v>
+        <v>1.107815008696897</v>
       </c>
       <c r="Q6">
-        <v>30.21906445238877</v>
+        <v>29.70032849457914</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>141.2553916956022</v>
+        <v>150.1017620097558</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.075340497076117</v>
+        <v>1.100885048434465</v>
       </c>
       <c r="O2">
-        <v>1.100000023843186</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.090793629028436</v>
+        <v>1.101021321329504</v>
       </c>
       <c r="Q2">
-        <v>29.82263079535391</v>
+        <v>29.96521596542121</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.7904994309988</v>
+        <v>150.0224862950387</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9718705643998585</v>
+        <v>1.104831597773249</v>
       </c>
       <c r="O3">
-        <v>1.100000023844711</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P3">
-        <v>1.064028910546295</v>
+        <v>1.105238697049233</v>
       </c>
       <c r="Q3">
-        <v>28.56571607035634</v>
+        <v>29.83099215593</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>143.3407071603335</v>
+        <v>150.1322247687002</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9322925558244001</v>
+        <v>1.105426658302853</v>
       </c>
       <c r="O4">
-        <v>1.100000023844711</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P4">
-        <v>1.029669667300757</v>
+        <v>1.107170901477865</v>
       </c>
       <c r="Q4">
-        <v>29.78823596287033</v>
+        <v>29.73297679904558</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>141.7940058885785</v>
+        <v>150.1093644084624</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.131286872924681</v>
+        <v>0.05040316071526205</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.06297561227509</v>
+        <v>0.5820055681392904</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4798,43 +4798,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.193141972850158</v>
+        <v>0.9242889973714739</v>
       </c>
       <c r="I5">
-        <v>2.890812310052897</v>
+        <v>-777.3787709404553</v>
       </c>
       <c r="J5">
-        <v>0.9743985901652035</v>
+        <v>0.9743985900784291</v>
       </c>
       <c r="K5">
-        <v>3.291772033564905</v>
+        <v>3.291772033561374</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606004</v>
+        <v>0.974398590271075</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033564206</v>
       </c>
       <c r="N5">
-        <v>0.906160143033605</v>
+        <v>1.105825160925582</v>
       </c>
       <c r="O5">
-        <v>1.100000023844711</v>
+        <v>1.100000023841823</v>
       </c>
       <c r="P5">
-        <v>1.007203956173986</v>
+        <v>1.108459135397323</v>
       </c>
       <c r="Q5">
-        <v>30.6623176874836</v>
+        <v>29.66769195547793</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S5">
-        <v>140.7047633326422</v>
+        <v>150.0941684464466</v>
       </c>
       <c r="T5">
-        <v>1.131286872924681</v>
+        <v>0.05040316071526206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9191996131227352</v>
+        <v>1.105625730183053</v>
       </c>
       <c r="O6">
-        <v>1.100000023844711</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P6">
-        <v>1.018390808124532</v>
+        <v>1.107815008696897</v>
       </c>
       <c r="Q6">
-        <v>30.21906445238877</v>
+        <v>29.70032849457914</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>141.2553916956022</v>
+        <v>150.1017620097558</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9561639511707216</v>
+        <v>1.000908184745584</v>
       </c>
       <c r="O2">
-        <v>0.9999999999970137</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="P2">
-        <v>0.9948362026886892</v>
+        <v>1.001027631741208</v>
       </c>
       <c r="Q2">
-        <v>28.91218574992027</v>
+        <v>29.9620889672324</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>147.2812347746038</v>
+        <v>150.0260533899784</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7980594586078246</v>
+        <v>1.00455791800918</v>
       </c>
       <c r="O3">
-        <v>0.9999999999991909</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>1.007992290336895</v>
+        <v>1.004853384187097</v>
       </c>
       <c r="Q3">
-        <v>22.89073929489316</v>
+        <v>29.83050312672959</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999656</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>136.8345664637647</v>
+        <v>150.1401294105123</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6988004285712685</v>
+        <v>1.004577391984169</v>
       </c>
       <c r="O4">
-        <v>0.9999999999991911</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P4">
-        <v>0.9287016425398823</v>
+        <v>1.007112630255563</v>
       </c>
       <c r="Q4">
-        <v>26.602146342576</v>
+        <v>29.68183775451944</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999628</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>132.2829707561813</v>
+        <v>150.0660813621016</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.904207346003257</v>
+        <v>0.04495344274550349</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.98789247615687</v>
+        <v>0.5190776454023375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5183,43 +5183,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.88996667800033</v>
+        <v>1.774569988253989</v>
       </c>
       <c r="I5">
-        <v>2.806851597694632</v>
+        <v>-777.3786294345629</v>
       </c>
       <c r="J5">
-        <v>1.779351894034424</v>
+        <v>1.779351893948111</v>
       </c>
       <c r="K5">
-        <v>3.399730879243805</v>
+        <v>3.399730879240115</v>
       </c>
       <c r="L5">
-        <v>1.779351893992867</v>
+        <v>1.7793518940034</v>
       </c>
       <c r="M5">
-        <v>3.399730879243856</v>
+        <v>3.399730879243545</v>
       </c>
       <c r="N5">
-        <v>0.6346786411360554</v>
+        <v>1.004594131885203</v>
       </c>
       <c r="O5">
-        <v>0.9999999999991912</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P5">
-        <v>0.8795785593514653</v>
+        <v>1.008619725329707</v>
       </c>
       <c r="Q5">
-        <v>29.71270428351457</v>
+        <v>29.58273114091143</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999606</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S5">
-        <v>128.8070926851617</v>
+        <v>150.0169003420199</v>
       </c>
       <c r="T5">
-        <v>1.904207346003256</v>
+        <v>0.04495344274550349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6664944788666056</v>
+        <v>1.004585386220886</v>
       </c>
       <c r="O6">
-        <v>0.9999999999991911</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P6">
-        <v>0.903724500924221</v>
+        <v>1.007866084968072</v>
       </c>
       <c r="Q6">
-        <v>28.08261970549219</v>
+        <v>29.63228403485281</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S6">
-        <v>130.5922584158413</v>
+        <v>150.0414724665607</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9561639511707216</v>
+        <v>1.000908184745584</v>
       </c>
       <c r="O2">
-        <v>0.9999999999970137</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="P2">
-        <v>0.9948362026886892</v>
+        <v>1.001027631741208</v>
       </c>
       <c r="Q2">
-        <v>28.91218574992027</v>
+        <v>29.9620889672324</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>147.2812347746038</v>
+        <v>150.0260533899784</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7980594586078246</v>
+        <v>1.00455791800918</v>
       </c>
       <c r="O3">
-        <v>0.9999999999991909</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>1.007992290336895</v>
+        <v>1.004853384187097</v>
       </c>
       <c r="Q3">
-        <v>22.89073929489316</v>
+        <v>29.83050312672959</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999656</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>136.8345664637647</v>
+        <v>150.1401294105123</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6988004285712685</v>
+        <v>1.004577391984169</v>
       </c>
       <c r="O4">
-        <v>0.9999999999991911</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P4">
-        <v>0.9287016425398823</v>
+        <v>1.007112630255563</v>
       </c>
       <c r="Q4">
-        <v>26.602146342576</v>
+        <v>29.68183775451944</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999628</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>132.2829707561813</v>
+        <v>150.0660813621016</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.904207346003257</v>
+        <v>0.04495344274550349</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.98789247615687</v>
+        <v>0.5190776454023375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5568,43 +5568,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.88996667800033</v>
+        <v>1.774569988253989</v>
       </c>
       <c r="I5">
-        <v>2.806851597694632</v>
+        <v>-777.3786294345629</v>
       </c>
       <c r="J5">
-        <v>1.779351894034424</v>
+        <v>1.779351893948111</v>
       </c>
       <c r="K5">
-        <v>3.399730879243805</v>
+        <v>3.399730879240115</v>
       </c>
       <c r="L5">
-        <v>1.779351893992867</v>
+        <v>1.7793518940034</v>
       </c>
       <c r="M5">
-        <v>3.399730879243856</v>
+        <v>3.399730879243545</v>
       </c>
       <c r="N5">
-        <v>0.6346786411360554</v>
+        <v>1.004594131885203</v>
       </c>
       <c r="O5">
-        <v>0.9999999999991912</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P5">
-        <v>0.8795785593514653</v>
+        <v>1.008619725329707</v>
       </c>
       <c r="Q5">
-        <v>29.71270428351457</v>
+        <v>29.58273114091143</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999606</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S5">
-        <v>128.8070926851617</v>
+        <v>150.0169003420199</v>
       </c>
       <c r="T5">
-        <v>1.904207346003256</v>
+        <v>0.04495344274550349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6664944788666056</v>
+        <v>1.004585386220886</v>
       </c>
       <c r="O6">
-        <v>0.9999999999991911</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P6">
-        <v>0.903724500924221</v>
+        <v>1.007866084968072</v>
       </c>
       <c r="Q6">
-        <v>28.08261970549219</v>
+        <v>29.63228403485281</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S6">
-        <v>130.5922584158413</v>
+        <v>150.0414724665607</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9786847046577957</v>
+        <v>1.000912241685002</v>
       </c>
       <c r="O2">
-        <v>0.9999999999987322</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="P2">
-        <v>0.9946342570548051</v>
+        <v>1.001056734731826</v>
       </c>
       <c r="Q2">
-        <v>29.6572387554516</v>
+        <v>29.96029845658928</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>148.7670375929855</v>
+        <v>150.0253574708474</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8990262575410072</v>
+        <v>1.004585734779795</v>
       </c>
       <c r="O3">
-        <v>0.9999999999997999</v>
+        <v>0.9999999999999496</v>
       </c>
       <c r="P3">
-        <v>0.9839389675969841</v>
+        <v>1.004996957142788</v>
       </c>
       <c r="Q3">
-        <v>27.85493664658752</v>
+        <v>29.82194519680789</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>143.8848219149406</v>
+        <v>150.1371807620475</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8581664594451343</v>
+        <v>1.004552948446193</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P4">
-        <v>0.9388367309109433</v>
+        <v>1.007273449038255</v>
       </c>
       <c r="Q4">
-        <v>29.8793750928587</v>
+        <v>29.67038727060675</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>142.4265178203751</v>
+        <v>150.0591049735699</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.884865614560284</v>
+        <v>0.04583037892117524</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.21754801526047</v>
+        <v>0.5292036321440615</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5953,43 +5953,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.88996667800033</v>
+        <v>1.774569988253989</v>
       </c>
       <c r="I5">
-        <v>2.806851597694632</v>
+        <v>-777.3786294345629</v>
       </c>
       <c r="J5">
-        <v>1.779351894034424</v>
+        <v>1.779351893948111</v>
       </c>
       <c r="K5">
-        <v>3.399730879243805</v>
+        <v>3.399730879240115</v>
       </c>
       <c r="L5">
-        <v>1.779351893992867</v>
+        <v>1.7793518940034</v>
       </c>
       <c r="M5">
-        <v>3.399730879243856</v>
+        <v>3.399730879243545</v>
       </c>
       <c r="N5">
-        <v>0.8315702581286989</v>
+        <v>1.004534996015301</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P5">
-        <v>0.9091343131749756</v>
+        <v>1.008792145505241</v>
       </c>
       <c r="Q5">
-        <v>31.33833484413734</v>
+        <v>29.56934361516154</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999621</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>141.3743755610145</v>
+        <v>150.0072502767681</v>
       </c>
       <c r="T5">
-        <v>0.8848656145602842</v>
+        <v>0.04583037892117524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8447999003586046</v>
+        <v>1.004543581702996</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P6">
-        <v>0.9239465849448011</v>
+        <v>1.008032694063169</v>
       </c>
       <c r="Q6">
-        <v>30.59737244496321</v>
+        <v>29.61986589433081</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>141.9089024637341</v>
+        <v>150.0331580941658</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9786847046577957</v>
+        <v>1.000912241685002</v>
       </c>
       <c r="O2">
-        <v>0.9999999999987322</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="P2">
-        <v>0.9946342570548051</v>
+        <v>1.001056734731826</v>
       </c>
       <c r="Q2">
-        <v>29.6572387554516</v>
+        <v>29.96029845658928</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>148.7670375929855</v>
+        <v>150.0253574708474</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8990262575410072</v>
+        <v>1.004585734779795</v>
       </c>
       <c r="O3">
-        <v>0.9999999999997999</v>
+        <v>0.9999999999999496</v>
       </c>
       <c r="P3">
-        <v>0.9839389675969841</v>
+        <v>1.004996957142788</v>
       </c>
       <c r="Q3">
-        <v>27.85493664658752</v>
+        <v>29.82194519680789</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>143.8848219149406</v>
+        <v>150.1371807620475</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8581664594451343</v>
+        <v>1.004552948446193</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P4">
-        <v>0.9388367309109433</v>
+        <v>1.007273449038255</v>
       </c>
       <c r="Q4">
-        <v>29.8793750928587</v>
+        <v>29.67038727060675</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>142.4265178203751</v>
+        <v>150.0591049735699</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.884865614560284</v>
+        <v>0.04583037892117524</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.21754801526047</v>
+        <v>0.5292036321440615</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6338,43 +6338,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.88996667800033</v>
+        <v>1.774569988253989</v>
       </c>
       <c r="I5">
-        <v>2.806851597694632</v>
+        <v>-777.3786294345629</v>
       </c>
       <c r="J5">
-        <v>1.779351894034424</v>
+        <v>1.779351893948111</v>
       </c>
       <c r="K5">
-        <v>3.399730879243805</v>
+        <v>3.399730879240115</v>
       </c>
       <c r="L5">
-        <v>1.779351893992867</v>
+        <v>1.7793518940034</v>
       </c>
       <c r="M5">
-        <v>3.399730879243856</v>
+        <v>3.399730879243545</v>
       </c>
       <c r="N5">
-        <v>0.8315702581286989</v>
+        <v>1.004534996015301</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P5">
-        <v>0.9091343131749756</v>
+        <v>1.008792145505241</v>
       </c>
       <c r="Q5">
-        <v>31.33833484413734</v>
+        <v>29.56934361516154</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999621</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>141.3743755610145</v>
+        <v>150.0072502767681</v>
       </c>
       <c r="T5">
-        <v>0.8848656145602842</v>
+        <v>0.04583037892117524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8447999003586046</v>
+        <v>1.004543581702996</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="P6">
-        <v>0.9239465849448011</v>
+        <v>1.008032694063169</v>
       </c>
       <c r="Q6">
-        <v>30.59737244496321</v>
+        <v>29.61986589433081</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>141.9089024637341</v>
+        <v>150.0331580941658</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.055124824002778</v>
+        <v>1.079076275427646</v>
       </c>
       <c r="O2">
-        <v>0.9618627255207173</v>
+        <v>0.9618627255197075</v>
       </c>
       <c r="P2">
-        <v>1.049868341957396</v>
+        <v>1.055560868461557</v>
       </c>
       <c r="Q2">
-        <v>25.89741871039352</v>
+        <v>26.45502373522068</v>
       </c>
       <c r="R2">
-        <v>-91.57079613674996</v>
+        <v>-91.57079613676132</v>
       </c>
       <c r="S2">
-        <v>151.518022974859</v>
+        <v>152.9047174209172</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9627445109702872</v>
+        <v>1.059714577225402</v>
       </c>
       <c r="O3">
-        <v>0.4199934651628818</v>
+        <v>0.4199934651620673</v>
       </c>
       <c r="P3">
-        <v>0.8378281349420286</v>
+        <v>0.8863447446557732</v>
       </c>
       <c r="Q3">
-        <v>4.850117901718457</v>
+        <v>10.35082395140853</v>
       </c>
       <c r="R3">
-        <v>-114.9022326533995</v>
+        <v>-114.9022326535614</v>
       </c>
       <c r="S3">
-        <v>159.0516052889431</v>
+        <v>167.5859658258958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8624632456480333</v>
+        <v>0.9926746638149998</v>
       </c>
       <c r="O4">
-        <v>0.1679973860671533</v>
+        <v>0.16799738606695</v>
       </c>
       <c r="P4">
-        <v>0.8147102499626784</v>
+        <v>0.922222387449166</v>
       </c>
       <c r="Q4">
-        <v>-2.953721503021864</v>
+        <v>4.379358293375297</v>
       </c>
       <c r="R4">
-        <v>-114.9022326485143</v>
+        <v>-114.9022326490585</v>
       </c>
       <c r="S4">
-        <v>166.0199907421201</v>
+        <v>175.2368939300348</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,58 +6708,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.055887790844919</v>
+        <v>3.20776041478391</v>
       </c>
       <c r="D5">
-        <v>2.620563445776257</v>
+        <v>3.200746410341704</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>46.83335815694461</v>
+        <v>37.04002677942633</v>
       </c>
       <c r="G5">
-        <v>30.25966021694831</v>
+        <v>36.95903603237023</v>
       </c>
       <c r="H5">
-        <v>6.193141972850111</v>
+        <v>0.924288997373898</v>
       </c>
       <c r="I5">
-        <v>2.890812310053084</v>
+        <v>-777.3787709404544</v>
       </c>
       <c r="J5">
-        <v>0.974398590253577</v>
+        <v>0.9743985902939444</v>
       </c>
       <c r="K5">
-        <v>3.291772033553182</v>
+        <v>3.291772033630032</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603586</v>
+        <v>0.974398590255609</v>
       </c>
       <c r="M5">
-        <v>3.291772033564914</v>
+        <v>3.291772033574271</v>
       </c>
       <c r="N5">
-        <v>0.8062769315687361</v>
+        <v>0.954648266672009</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8062769315723288</v>
+        <v>0.9546482666738476</v>
       </c>
       <c r="Q5">
-        <v>-9.158832618363633</v>
+        <v>-0.03612908943425578</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.8411673816616</v>
+        <v>179.9638709105875</v>
       </c>
       <c r="T5">
-        <v>2.359396404470384</v>
+        <v>0.02456068077950305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8331485041581456</v>
+        <v>0.972939010588656</v>
       </c>
       <c r="O6">
-        <v>0.08399869303564424</v>
+        <v>0.08399869303564458</v>
       </c>
       <c r="P6">
-        <v>0.8097763836452501</v>
+        <v>0.9376372500857111</v>
       </c>
       <c r="Q6">
-        <v>-5.951712220735979</v>
+        <v>2.214747713441271</v>
       </c>
       <c r="R6">
-        <v>-114.9022326400622</v>
+        <v>-114.9022326412437</v>
       </c>
       <c r="S6">
-        <v>168.4180303740878</v>
+        <v>177.6412385538972</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.055124824002778</v>
+        <v>1.079076275427646</v>
       </c>
       <c r="O2">
-        <v>0.9618627255207173</v>
+        <v>0.9618627255197075</v>
       </c>
       <c r="P2">
-        <v>1.049868341957396</v>
+        <v>1.055560868461557</v>
       </c>
       <c r="Q2">
-        <v>25.89741871039352</v>
+        <v>26.45502373522068</v>
       </c>
       <c r="R2">
-        <v>-91.57079613674996</v>
+        <v>-91.57079613676132</v>
       </c>
       <c r="S2">
-        <v>151.518022974859</v>
+        <v>152.9047174209172</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9627445109702872</v>
+        <v>1.059714577225402</v>
       </c>
       <c r="O3">
-        <v>0.4199934651628818</v>
+        <v>0.4199934651620673</v>
       </c>
       <c r="P3">
-        <v>0.8378281349420286</v>
+        <v>0.8863447446557732</v>
       </c>
       <c r="Q3">
-        <v>4.850117901718457</v>
+        <v>10.35082395140853</v>
       </c>
       <c r="R3">
-        <v>-114.9022326533995</v>
+        <v>-114.9022326535614</v>
       </c>
       <c r="S3">
-        <v>159.0516052889431</v>
+        <v>167.5859658258958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8624632456480333</v>
+        <v>0.9926746638149998</v>
       </c>
       <c r="O4">
-        <v>0.1679973860671533</v>
+        <v>0.16799738606695</v>
       </c>
       <c r="P4">
-        <v>0.8147102499626784</v>
+        <v>0.922222387449166</v>
       </c>
       <c r="Q4">
-        <v>-2.953721503021864</v>
+        <v>4.379358293375297</v>
       </c>
       <c r="R4">
-        <v>-114.9022326485143</v>
+        <v>-114.9022326490585</v>
       </c>
       <c r="S4">
-        <v>166.0199907421201</v>
+        <v>175.2368939300348</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,58 +7093,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.055887790844919</v>
+        <v>3.20776041478391</v>
       </c>
       <c r="D5">
-        <v>2.620563445776257</v>
+        <v>3.200746410341704</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>46.83335815694461</v>
+        <v>37.04002677942633</v>
       </c>
       <c r="G5">
-        <v>30.25966021694831</v>
+        <v>36.95903603237023</v>
       </c>
       <c r="H5">
-        <v>6.193141972850111</v>
+        <v>0.924288997373898</v>
       </c>
       <c r="I5">
-        <v>2.890812310053084</v>
+        <v>-777.3787709404544</v>
       </c>
       <c r="J5">
-        <v>0.974398590253577</v>
+        <v>0.9743985902939444</v>
       </c>
       <c r="K5">
-        <v>3.291772033553182</v>
+        <v>3.291772033630032</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603586</v>
+        <v>0.974398590255609</v>
       </c>
       <c r="M5">
-        <v>3.291772033564914</v>
+        <v>3.291772033574271</v>
       </c>
       <c r="N5">
-        <v>0.8062769315687361</v>
+        <v>0.954648266672009</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8062769315723288</v>
+        <v>0.9546482666738476</v>
       </c>
       <c r="Q5">
-        <v>-9.158832618363633</v>
+        <v>-0.03612908943425578</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.8411673816616</v>
+        <v>179.9638709105875</v>
       </c>
       <c r="T5">
-        <v>2.359396404470384</v>
+        <v>0.02456068077950305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8331485041581456</v>
+        <v>0.972939010588656</v>
       </c>
       <c r="O6">
-        <v>0.08399869303564424</v>
+        <v>0.08399869303564458</v>
       </c>
       <c r="P6">
-        <v>0.8097763836452501</v>
+        <v>0.9376372500857111</v>
       </c>
       <c r="Q6">
-        <v>-5.951712220735979</v>
+        <v>2.214747713441271</v>
       </c>
       <c r="R6">
-        <v>-114.9022326400622</v>
+        <v>-114.9022326412437</v>
       </c>
       <c r="S6">
-        <v>168.4180303740878</v>
+        <v>177.6412385538972</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089411328067227</v>
+        <v>1.100503951635874</v>
       </c>
       <c r="O2">
-        <v>1.05927814895277</v>
+        <v>1.059278148952215</v>
       </c>
       <c r="P2">
-        <v>1.076368061887133</v>
+        <v>1.079796003436903</v>
       </c>
       <c r="Q2">
-        <v>28.61149561986726</v>
+        <v>28.75866389052294</v>
       </c>
       <c r="R2">
-        <v>-91.2833408573388</v>
+        <v>-91.28334085734001</v>
       </c>
       <c r="S2">
-        <v>150.0525891671686</v>
+        <v>150.6328470730736</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.059625413664492</v>
+        <v>1.114952098253599</v>
       </c>
       <c r="O3">
-        <v>0.9019226052882123</v>
+        <v>0.9019226052871631</v>
       </c>
       <c r="P3">
-        <v>0.9757792056795003</v>
+        <v>0.9920021905742202</v>
       </c>
       <c r="Q3">
-        <v>22.32649025523032</v>
+        <v>23.56432825778583</v>
       </c>
       <c r="R3">
-        <v>-98.66237050194596</v>
+        <v>-98.66237050195741</v>
       </c>
       <c r="S3">
-        <v>149.9179145227633</v>
+        <v>153.2886757660585</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020771879971593</v>
+        <v>1.095155348605491</v>
       </c>
       <c r="O4">
-        <v>0.8174068168694198</v>
+        <v>0.817406816868457</v>
       </c>
       <c r="P4">
-        <v>0.9428203665643092</v>
+        <v>0.9780328120211204</v>
       </c>
       <c r="Q4">
-        <v>20.50185505309442</v>
+        <v>21.60749034604368</v>
       </c>
       <c r="R4">
-        <v>-98.97748982581034</v>
+        <v>-98.97748982582766</v>
       </c>
       <c r="S4">
-        <v>151.4996157148665</v>
+        <v>155.5950476536727</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,58 +7478,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.298330997832553</v>
+        <v>1.083739179935708</v>
       </c>
       <c r="D5">
-        <v>1.075138985077874</v>
+        <v>1.069010428917873</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.9918350219172</v>
+        <v>12.51394214534451</v>
       </c>
       <c r="G5">
-        <v>12.41463564901944</v>
+        <v>12.34386917804503</v>
       </c>
       <c r="H5">
-        <v>6.193141972850111</v>
+        <v>0.924288997373898</v>
       </c>
       <c r="I5">
-        <v>2.890812310053084</v>
+        <v>-777.3787709404544</v>
       </c>
       <c r="J5">
-        <v>0.974398590253577</v>
+        <v>0.9743985902939444</v>
       </c>
       <c r="K5">
-        <v>3.291772033553182</v>
+        <v>3.291772033630032</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603586</v>
+        <v>0.974398590255609</v>
       </c>
       <c r="M5">
-        <v>3.291772033564914</v>
+        <v>3.291772033574271</v>
       </c>
       <c r="N5">
-        <v>0.9954818448650825</v>
+        <v>1.082688527942788</v>
       </c>
       <c r="O5">
-        <v>0.7610792363894664</v>
+        <v>0.761079236388562</v>
       </c>
       <c r="P5">
-        <v>0.9212706670340195</v>
+        <v>0.9696209414756137</v>
       </c>
       <c r="Q5">
-        <v>19.2071603774158</v>
+        <v>20.26419465311981</v>
       </c>
       <c r="R5">
-        <v>-99.22644568572218</v>
+        <v>-99.22644568574417</v>
       </c>
       <c r="S5">
-        <v>152.6164013912023</v>
+        <v>157.1678928338567</v>
       </c>
       <c r="T5">
-        <v>1.024324949332178</v>
+        <v>0.02479883111879724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.008062528246948</v>
+        <v>1.088847123814541</v>
       </c>
       <c r="O6">
-        <v>0.7892411664000925</v>
+        <v>0.7892411663991589</v>
       </c>
       <c r="P6">
-        <v>0.9320012599957949</v>
+        <v>0.9737351484097106</v>
       </c>
       <c r="Q6">
-        <v>19.8626277913502</v>
+        <v>20.93968744780397</v>
       </c>
       <c r="R6">
-        <v>-99.09752580834517</v>
+        <v>-99.09752580836475</v>
       </c>
       <c r="S6">
-        <v>152.051553085743</v>
+        <v>156.378073489876</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089411328067227</v>
+        <v>1.100503951635874</v>
       </c>
       <c r="O2">
-        <v>1.05927814895277</v>
+        <v>1.059278148952215</v>
       </c>
       <c r="P2">
-        <v>1.076368061887133</v>
+        <v>1.079796003436903</v>
       </c>
       <c r="Q2">
-        <v>28.61149561986726</v>
+        <v>28.75866389052294</v>
       </c>
       <c r="R2">
-        <v>-91.2833408573388</v>
+        <v>-91.28334085734001</v>
       </c>
       <c r="S2">
-        <v>150.0525891671686</v>
+        <v>150.6328470730736</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.059625413664492</v>
+        <v>1.114952098253599</v>
       </c>
       <c r="O3">
-        <v>0.9019226052882123</v>
+        <v>0.9019226052871631</v>
       </c>
       <c r="P3">
-        <v>0.9757792056795003</v>
+        <v>0.9920021905742202</v>
       </c>
       <c r="Q3">
-        <v>22.32649025523032</v>
+        <v>23.56432825778583</v>
       </c>
       <c r="R3">
-        <v>-98.66237050194596</v>
+        <v>-98.66237050195741</v>
       </c>
       <c r="S3">
-        <v>149.9179145227633</v>
+        <v>153.2886757660585</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020771879971593</v>
+        <v>1.095155348605491</v>
       </c>
       <c r="O4">
-        <v>0.8174068168694198</v>
+        <v>0.817406816868457</v>
       </c>
       <c r="P4">
-        <v>0.9428203665643092</v>
+        <v>0.9780328120211204</v>
       </c>
       <c r="Q4">
-        <v>20.50185505309442</v>
+        <v>21.60749034604368</v>
       </c>
       <c r="R4">
-        <v>-98.97748982581034</v>
+        <v>-98.97748982582766</v>
       </c>
       <c r="S4">
-        <v>151.4996157148665</v>
+        <v>155.5950476536727</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.298330997832553</v>
+        <v>1.083739179935708</v>
       </c>
       <c r="D5">
-        <v>1.075138985077874</v>
+        <v>1.069010428917873</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.9918350219172</v>
+        <v>12.51394214534451</v>
       </c>
       <c r="G5">
-        <v>12.41463564901944</v>
+        <v>12.34386917804503</v>
       </c>
       <c r="H5">
-        <v>6.193141972850111</v>
+        <v>0.924288997373898</v>
       </c>
       <c r="I5">
-        <v>2.890812310053084</v>
+        <v>-777.3787709404544</v>
       </c>
       <c r="J5">
-        <v>0.974398590253577</v>
+        <v>0.9743985902939444</v>
       </c>
       <c r="K5">
-        <v>3.291772033553182</v>
+        <v>3.291772033630032</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603586</v>
+        <v>0.974398590255609</v>
       </c>
       <c r="M5">
-        <v>3.291772033564914</v>
+        <v>3.291772033574271</v>
       </c>
       <c r="N5">
-        <v>0.9954818448650825</v>
+        <v>1.082688527942788</v>
       </c>
       <c r="O5">
-        <v>0.7610792363894664</v>
+        <v>0.761079236388562</v>
       </c>
       <c r="P5">
-        <v>0.9212706670340195</v>
+        <v>0.9696209414756137</v>
       </c>
       <c r="Q5">
-        <v>19.2071603774158</v>
+        <v>20.26419465311981</v>
       </c>
       <c r="R5">
-        <v>-99.22644568572218</v>
+        <v>-99.22644568574417</v>
       </c>
       <c r="S5">
-        <v>152.6164013912023</v>
+        <v>157.1678928338567</v>
       </c>
       <c r="T5">
-        <v>1.024324949332178</v>
+        <v>0.02479883111879724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.008062528246948</v>
+        <v>1.088847123814541</v>
       </c>
       <c r="O6">
-        <v>0.7892411664000925</v>
+        <v>0.7892411663991589</v>
       </c>
       <c r="P6">
-        <v>0.9320012599957949</v>
+        <v>0.9737351484097106</v>
       </c>
       <c r="Q6">
-        <v>19.8626277913502</v>
+        <v>20.93968744780397</v>
       </c>
       <c r="R6">
-        <v>-99.09752580834517</v>
+        <v>-99.09752580836475</v>
       </c>
       <c r="S6">
-        <v>152.051553085743</v>
+        <v>156.378073489876</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9804978637984342</v>
+        <v>0.9931718356581087</v>
       </c>
       <c r="O2">
-        <v>0.8804584269832639</v>
+        <v>0.8804584269842757</v>
       </c>
       <c r="P2">
-        <v>0.9503835269026661</v>
+        <v>0.9498290036917082</v>
       </c>
       <c r="Q2">
-        <v>25.69293696330557</v>
+        <v>26.26670392399264</v>
       </c>
       <c r="R2">
-        <v>-93.1665453843944</v>
+        <v>-93.16654538439053</v>
       </c>
       <c r="S2">
-        <v>151.46312669446</v>
+        <v>152.4317300126438</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.979969356148864</v>
+        <v>1.022701305738341</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969357</v>
+        <v>0.503706297796907</v>
       </c>
       <c r="P3">
-        <v>0.7599165749271388</v>
+        <v>0.7652566161298573</v>
       </c>
       <c r="Q3">
-        <v>8.359540057860489</v>
+        <v>12.07818148765866</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883267</v>
+        <v>-121.7925562883282</v>
       </c>
       <c r="S3">
-        <v>157.9195725868063</v>
+        <v>163.7505137091395</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8536152435449029</v>
+        <v>0.9246914706731115</v>
       </c>
       <c r="O4">
-        <v>0.2014825191279409</v>
+        <v>0.2014825191276903</v>
       </c>
       <c r="P4">
-        <v>0.7653016242446731</v>
+        <v>0.8191800590788391</v>
       </c>
       <c r="Q4">
-        <v>0.4606817086146961</v>
+        <v>5.274136516679603</v>
       </c>
       <c r="R4">
-        <v>-121.7925562834086</v>
+        <v>-121.792556283384</v>
       </c>
       <c r="S4">
-        <v>167.5960389338645</v>
+        <v>173.9559715244168</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,58 +8248,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.077249408701094</v>
+        <v>2.61128258835149</v>
       </c>
       <c r="D5">
-        <v>2.220454844409832</v>
+        <v>2.600860462147182</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.53301548954387</v>
+        <v>30.15249410629831</v>
       </c>
       <c r="G5">
-        <v>25.6396040428685</v>
+        <v>30.0321497589066</v>
       </c>
       <c r="H5">
-        <v>11.88996667800025</v>
+        <v>1.774569988253861</v>
       </c>
       <c r="I5">
-        <v>2.806851597694823</v>
+        <v>-777.3786294345613</v>
       </c>
       <c r="J5">
-        <v>1.779351894005447</v>
+        <v>1.779351894045357</v>
       </c>
       <c r="K5">
-        <v>3.399730879266431</v>
+        <v>3.399730879342927</v>
       </c>
       <c r="L5">
-        <v>1.779351893992418</v>
+        <v>1.779351893987454</v>
       </c>
       <c r="M5">
-        <v>3.399730879243924</v>
+        <v>3.399730879253181</v>
       </c>
       <c r="N5">
-        <v>0.7807569542035457</v>
+        <v>0.8679204016642397</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7807569542043066</v>
+        <v>0.8679204016646993</v>
       </c>
       <c r="Q5">
-        <v>-6.142526072165132</v>
+        <v>-0.06600230002611422</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>173.8574739273856</v>
+        <v>179.933997699583</v>
       </c>
       <c r="T5">
-        <v>1.278171381057084</v>
+        <v>0.02232935425386956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8158324350123142</v>
+        <v>0.8953338349562622</v>
       </c>
       <c r="O6">
-        <v>0.1007412595725313</v>
+        <v>0.1007412595722067</v>
       </c>
       <c r="P6">
-        <v>0.7718756846880606</v>
+        <v>0.8424035828205479</v>
       </c>
       <c r="Q6">
-        <v>-2.693577969362383</v>
+        <v>2.688687997835374</v>
       </c>
       <c r="R6">
-        <v>-121.792556274902</v>
+        <v>-121.7925562748336</v>
       </c>
       <c r="S6">
-        <v>170.758084143668</v>
+        <v>177.0314155742899</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9804978637984342</v>
+        <v>0.9931718356581087</v>
       </c>
       <c r="O2">
-        <v>0.8804584269832639</v>
+        <v>0.8804584269842757</v>
       </c>
       <c r="P2">
-        <v>0.9503835269026661</v>
+        <v>0.9498290036917082</v>
       </c>
       <c r="Q2">
-        <v>25.69293696330557</v>
+        <v>26.26670392399264</v>
       </c>
       <c r="R2">
-        <v>-93.1665453843944</v>
+        <v>-93.16654538439053</v>
       </c>
       <c r="S2">
-        <v>151.46312669446</v>
+        <v>152.4317300126438</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.979969356148864</v>
+        <v>1.022701305738341</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969357</v>
+        <v>0.503706297796907</v>
       </c>
       <c r="P3">
-        <v>0.7599165749271388</v>
+        <v>0.7652566161298573</v>
       </c>
       <c r="Q3">
-        <v>8.359540057860489</v>
+        <v>12.07818148765866</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883267</v>
+        <v>-121.7925562883282</v>
       </c>
       <c r="S3">
-        <v>157.9195725868063</v>
+        <v>163.7505137091395</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8536152435449029</v>
+        <v>0.9246914706731115</v>
       </c>
       <c r="O4">
-        <v>0.2014825191279409</v>
+        <v>0.2014825191276903</v>
       </c>
       <c r="P4">
-        <v>0.7653016242446731</v>
+        <v>0.8191800590788391</v>
       </c>
       <c r="Q4">
-        <v>0.4606817086146961</v>
+        <v>5.274136516679603</v>
       </c>
       <c r="R4">
-        <v>-121.7925562834086</v>
+        <v>-121.792556283384</v>
       </c>
       <c r="S4">
-        <v>167.5960389338645</v>
+        <v>173.9559715244168</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,58 +8784,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.077249408701094</v>
+        <v>2.61128258835149</v>
       </c>
       <c r="D5">
-        <v>2.220454844409832</v>
+        <v>2.600860462147182</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.53301548954387</v>
+        <v>30.15249410629831</v>
       </c>
       <c r="G5">
-        <v>25.6396040428685</v>
+        <v>30.0321497589066</v>
       </c>
       <c r="H5">
-        <v>11.88996667800025</v>
+        <v>1.774569988253861</v>
       </c>
       <c r="I5">
-        <v>2.806851597694823</v>
+        <v>-777.3786294345613</v>
       </c>
       <c r="J5">
-        <v>1.779351894005447</v>
+        <v>1.779351894045357</v>
       </c>
       <c r="K5">
-        <v>3.399730879266431</v>
+        <v>3.399730879342927</v>
       </c>
       <c r="L5">
-        <v>1.779351893992418</v>
+        <v>1.779351893987454</v>
       </c>
       <c r="M5">
-        <v>3.399730879243924</v>
+        <v>3.399730879253181</v>
       </c>
       <c r="N5">
-        <v>0.7807569542035457</v>
+        <v>0.8679204016642397</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7807569542043066</v>
+        <v>0.8679204016646993</v>
       </c>
       <c r="Q5">
-        <v>-6.142526072165132</v>
+        <v>-0.06600230002611422</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>173.8574739273856</v>
+        <v>179.933997699583</v>
       </c>
       <c r="T5">
-        <v>1.278171381057084</v>
+        <v>0.02232935425386956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8158324350123142</v>
+        <v>0.8953338349562622</v>
       </c>
       <c r="O6">
-        <v>0.1007412595725313</v>
+        <v>0.1007412595722067</v>
       </c>
       <c r="P6">
-        <v>0.7718756846880606</v>
+        <v>0.8424035828205479</v>
       </c>
       <c r="Q6">
-        <v>-2.693577969362383</v>
+        <v>2.688687997835374</v>
       </c>
       <c r="R6">
-        <v>-121.792556274902</v>
+        <v>-121.7925562748336</v>
       </c>
       <c r="S6">
-        <v>170.758084143668</v>
+        <v>177.0314155742899</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9932388581912179</v>
+        <v>1.001788733717098</v>
       </c>
       <c r="O2">
-        <v>0.9615729355896764</v>
+        <v>0.9615729355902374</v>
       </c>
       <c r="P2">
-        <v>0.9783145709287621</v>
+        <v>0.9796431909885015</v>
       </c>
       <c r="Q2">
-        <v>28.4531737117705</v>
+        <v>28.66772749765817</v>
       </c>
       <c r="R2">
-        <v>-91.51132863889102</v>
+        <v>-91.51132863889003</v>
       </c>
       <c r="S2">
-        <v>150.0769244495085</v>
+        <v>150.6174228701516</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9811513332024521</v>
+        <v>1.019377232328966</v>
       </c>
       <c r="O3">
-        <v>0.8296997009408229</v>
+        <v>0.8296997009408655</v>
       </c>
       <c r="P3">
-        <v>0.894887145992543</v>
+        <v>0.8998828789820574</v>
       </c>
       <c r="Q3">
-        <v>22.30730650461709</v>
+        <v>23.68306137110366</v>
       </c>
       <c r="R3">
-        <v>-99.1739223467282</v>
+        <v>-99.1739223467266</v>
       </c>
       <c r="S3">
-        <v>150.0573751629893</v>
+        <v>152.9222094418988</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9254622396303724</v>
+        <v>0.9827800733458919</v>
       </c>
       <c r="O4">
-        <v>0.7246674127320769</v>
+        <v>0.7246674127320865</v>
       </c>
       <c r="P4">
-        <v>0.8686474616099789</v>
+        <v>0.8958582438755373</v>
       </c>
       <c r="Q4">
-        <v>20.3692484791867</v>
+        <v>21.39919611212462</v>
       </c>
       <c r="R4">
-        <v>-97.50360857595463</v>
+        <v>-97.50360857594953</v>
       </c>
       <c r="S4">
-        <v>152.8533676983915</v>
+        <v>156.3144715074963</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,58 +9169,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.109659918351935</v>
+        <v>0.933657780095716</v>
       </c>
       <c r="D5">
-        <v>0.8690420588171913</v>
+        <v>0.9192677231178729</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.81324905138856</v>
+        <v>10.780951413385</v>
       </c>
       <c r="G5">
-        <v>10.03483333190424</v>
+        <v>10.61478934798877</v>
       </c>
       <c r="H5">
-        <v>11.88996667800025</v>
+        <v>1.774569988253861</v>
       </c>
       <c r="I5">
-        <v>2.806851597694823</v>
+        <v>-777.3786294345613</v>
       </c>
       <c r="J5">
-        <v>1.779351894005447</v>
+        <v>1.779351894045357</v>
       </c>
       <c r="K5">
-        <v>3.399730879266431</v>
+        <v>3.399730879342927</v>
       </c>
       <c r="L5">
-        <v>1.779351893992418</v>
+        <v>1.779351893987454</v>
       </c>
       <c r="M5">
-        <v>3.399730879243924</v>
+        <v>3.399730879253181</v>
       </c>
       <c r="N5">
-        <v>0.888985608235358</v>
+        <v>0.9593041340445416</v>
       </c>
       <c r="O5">
-        <v>0.6550793552707752</v>
+        <v>0.655079355270765</v>
       </c>
       <c r="P5">
-        <v>0.8523614955384029</v>
+        <v>0.8949306351689683</v>
       </c>
       <c r="Q5">
-        <v>18.94338221820283</v>
+        <v>19.78148666497805</v>
       </c>
       <c r="R5">
-        <v>-96.09329345652827</v>
+        <v>-96.09329345652014</v>
       </c>
       <c r="S5">
-        <v>154.8099639872519</v>
+        <v>158.5877620535826</v>
       </c>
       <c r="T5">
-        <v>0.7349331773677207</v>
+        <v>0.02254552310859528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9071537209337968</v>
+        <v>0.9709453576595859</v>
       </c>
       <c r="O6">
-        <v>0.6898212699572468</v>
+        <v>0.6898212699572461</v>
       </c>
       <c r="P6">
-        <v>0.8603790573951019</v>
+        <v>0.8952182521950481</v>
       </c>
       <c r="Q6">
-        <v>19.67064849200602</v>
+        <v>20.60011948465747</v>
       </c>
       <c r="R6">
-        <v>-96.83401769911028</v>
+        <v>-96.83401769910375</v>
       </c>
       <c r="S6">
-        <v>153.8224072746656</v>
+        <v>157.4505279336261</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9932388581912179</v>
+        <v>1.001788733717098</v>
       </c>
       <c r="O2">
-        <v>0.9615729355896764</v>
+        <v>0.9615729355902374</v>
       </c>
       <c r="P2">
-        <v>0.9783145709287621</v>
+        <v>0.9796431909885015</v>
       </c>
       <c r="Q2">
-        <v>28.4531737117705</v>
+        <v>28.66772749765817</v>
       </c>
       <c r="R2">
-        <v>-91.51132863889102</v>
+        <v>-91.51132863889003</v>
       </c>
       <c r="S2">
-        <v>150.0769244495085</v>
+        <v>150.6174228701516</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9811513332024521</v>
+        <v>1.019377232328966</v>
       </c>
       <c r="O3">
-        <v>0.8296997009408229</v>
+        <v>0.8296997009408655</v>
       </c>
       <c r="P3">
-        <v>0.894887145992543</v>
+        <v>0.8998828789820574</v>
       </c>
       <c r="Q3">
-        <v>22.30730650461709</v>
+        <v>23.68306137110366</v>
       </c>
       <c r="R3">
-        <v>-99.1739223467282</v>
+        <v>-99.1739223467266</v>
       </c>
       <c r="S3">
-        <v>150.0573751629893</v>
+        <v>152.9222094418988</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9254622396303724</v>
+        <v>0.9827800733458919</v>
       </c>
       <c r="O4">
-        <v>0.7246674127320769</v>
+        <v>0.7246674127320865</v>
       </c>
       <c r="P4">
-        <v>0.8686474616099789</v>
+        <v>0.8958582438755373</v>
       </c>
       <c r="Q4">
-        <v>20.3692484791867</v>
+        <v>21.39919611212462</v>
       </c>
       <c r="R4">
-        <v>-97.50360857595463</v>
+        <v>-97.50360857594953</v>
       </c>
       <c r="S4">
-        <v>152.8533676983915</v>
+        <v>156.3144715074963</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,58 +9554,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.109659918351935</v>
+        <v>0.933657780095716</v>
       </c>
       <c r="D5">
-        <v>0.8690420588171913</v>
+        <v>0.9192677231178729</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.81324905138856</v>
+        <v>10.780951413385</v>
       </c>
       <c r="G5">
-        <v>10.03483333190424</v>
+        <v>10.61478934798877</v>
       </c>
       <c r="H5">
-        <v>11.88996667800025</v>
+        <v>1.774569988253861</v>
       </c>
       <c r="I5">
-        <v>2.806851597694823</v>
+        <v>-777.3786294345613</v>
       </c>
       <c r="J5">
-        <v>1.779351894005447</v>
+        <v>1.779351894045357</v>
       </c>
       <c r="K5">
-        <v>3.399730879266431</v>
+        <v>3.399730879342927</v>
       </c>
       <c r="L5">
-        <v>1.779351893992418</v>
+        <v>1.779351893987454</v>
       </c>
       <c r="M5">
-        <v>3.399730879243924</v>
+        <v>3.399730879253181</v>
       </c>
       <c r="N5">
-        <v>0.888985608235358</v>
+        <v>0.9593041340445416</v>
       </c>
       <c r="O5">
-        <v>0.6550793552707752</v>
+        <v>0.655079355270765</v>
       </c>
       <c r="P5">
-        <v>0.8523614955384029</v>
+        <v>0.8949306351689683</v>
       </c>
       <c r="Q5">
-        <v>18.94338221820283</v>
+        <v>19.78148666497805</v>
       </c>
       <c r="R5">
-        <v>-96.09329345652827</v>
+        <v>-96.09329345652014</v>
       </c>
       <c r="S5">
-        <v>154.8099639872519</v>
+        <v>158.5877620535826</v>
       </c>
       <c r="T5">
-        <v>0.7349331773677207</v>
+        <v>0.02254552310859528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9071537209337968</v>
+        <v>0.9709453576595859</v>
       </c>
       <c r="O6">
-        <v>0.6898212699572468</v>
+        <v>0.6898212699572461</v>
       </c>
       <c r="P6">
-        <v>0.8603790573951019</v>
+        <v>0.8952182521950481</v>
       </c>
       <c r="Q6">
-        <v>19.67064849200602</v>
+        <v>20.60011948465747</v>
       </c>
       <c r="R6">
-        <v>-96.83401769911028</v>
+        <v>-96.83401769910375</v>
       </c>
       <c r="S6">
-        <v>153.8224072746656</v>
+        <v>157.4505279336261</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,16 +10541,16 @@
         <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>0.9618627255197193</v>
+        <v>0.9618627255197185</v>
       </c>
       <c r="P2">
         <v>1.05530912685228</v>
       </c>
       <c r="Q2">
-        <v>26.46268431694228</v>
+        <v>26.46268431694226</v>
       </c>
       <c r="R2">
-        <v>-91.57079613676153</v>
+        <v>-91.57079613676156</v>
       </c>
       <c r="S2">
         <v>152.8993938557652</v>
@@ -10600,19 +10600,19 @@
         <v>1.05833274212321</v>
       </c>
       <c r="O3">
-        <v>0.4199934651621025</v>
+        <v>0.4199934651621006</v>
       </c>
       <c r="P3">
-        <v>0.8849458407134011</v>
+        <v>0.884945840713399</v>
       </c>
       <c r="Q3">
-        <v>10.36827052971088</v>
+        <v>10.36827052971081</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535644</v>
+        <v>-114.9022326535649</v>
       </c>
       <c r="S3">
-        <v>167.570584904511</v>
+        <v>167.5705849045111</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9909306888778331</v>
+        <v>0.9909306888778336</v>
       </c>
       <c r="O4">
-        <v>0.1679973860669874</v>
+        <v>0.1679973860669844</v>
       </c>
       <c r="P4">
-        <v>0.9204173017492238</v>
+        <v>0.9204173017492218</v>
       </c>
       <c r="Q4">
-        <v>4.409620443404006</v>
+        <v>4.409620443403907</v>
       </c>
       <c r="R4">
-        <v>-114.9022326490687</v>
+        <v>-114.90223264907</v>
       </c>
       <c r="S4">
-        <v>175.2518098001974</v>
+        <v>175.2518098001976</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10682,55 +10682,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.20423179939041</v>
+        <v>3.204231799390427</v>
       </c>
       <c r="D5">
-        <v>3.20423179939041</v>
+        <v>3.204231799390427</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.99928183848024</v>
+        <v>36.99928183848044</v>
       </c>
       <c r="G5">
-        <v>36.99928183848024</v>
+        <v>36.99928183848044</v>
       </c>
       <c r="H5">
-        <v>6.193141972850111</v>
+        <v>0.924288997373898</v>
       </c>
       <c r="I5">
-        <v>2.890812310053084</v>
+        <v>-777.3787709404544</v>
       </c>
       <c r="J5">
-        <v>0.974398590253577</v>
+        <v>0.9743985902939444</v>
       </c>
       <c r="K5">
-        <v>3.291772033553182</v>
+        <v>3.291772033630032</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603586</v>
+        <v>0.974398590255609</v>
       </c>
       <c r="M5">
-        <v>3.291772033564914</v>
+        <v>3.291772033574271</v>
       </c>
       <c r="N5">
-        <v>0.9526279648039778</v>
+        <v>0.9526279648039786</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648057687</v>
+        <v>0.9526279648057672</v>
       </c>
       <c r="Q5">
-        <v>-1.434352929403458E-11</v>
+        <v>-1.447069558077393E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999999793</v>
+        <v>-179.9999999999791</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9710601884679125</v>
+        <v>0.9710601884679132</v>
       </c>
       <c r="O6">
-        <v>0.08399869303568283</v>
+        <v>0.08399869303567935</v>
       </c>
       <c r="P6">
-        <v>0.9357190172509386</v>
+        <v>0.935719017250937</v>
       </c>
       <c r="Q6">
-        <v>2.248283018886296</v>
+        <v>2.248283018886182</v>
       </c>
       <c r="R6">
-        <v>-114.9022326412659</v>
+        <v>-114.9022326412686</v>
       </c>
       <c r="S6">
-        <v>177.6667554660106</v>
+        <v>177.6667554660108</v>
       </c>
     </row>
   </sheetData>
